--- a/Assets.xlsx
+++ b/Assets.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Lewis\.Uni\FMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2AB8AC84-1513-4274-BD0C-3BE634070DA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
     <sheet name="Textures" sheetId="2" r:id="rId2"/>
     <sheet name="Sounds" sheetId="3" r:id="rId3"/>
     <sheet name="Fonts" sheetId="4" r:id="rId4"/>
+    <sheet name="Shaders" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,15 +29,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>http://www.fontspace.com/freaky-fonts/gamegirl-classic</t>
   </si>
+  <si>
+    <t>https://github.com/ivuecode/Liquid-Simulation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -392,7 +397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -404,7 +409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -416,11 +421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,4 +438,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BB9B23-E10A-4F5C-8CD1-D10822839DF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>